--- a/biology/Zoologie/Belisana/Belisana.xlsx
+++ b/biology/Zoologie/Belisana/Belisana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belisana est un genre d'araignées aranéomorphes de la famille des Pholcidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belisana est un genre d'araignées aranéomorphes de la famille des Pholcidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 30/05/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 30/05/2024) :
 Belisana airai Huber, 2005
 Belisana akebona (Komatsu, 1961)
 Belisana aliformis Tong &amp; Li, 2008
@@ -729,9 +745,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1898 dans les Pholcidae. Il est placé en synonymie avec Uthina par Simon en 1903[2]. Il est relevé de synonymie par Deeleman-Reinhold en 1986[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1898 dans les Pholcidae. Il est placé en synonymie avec Uthina par Simon en 1903. Il est relevé de synonymie par Deeleman-Reinhold en 1986.
 </t>
         </is>
       </c>
@@ -760,7 +778,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1898 : « Viaggio di Leonardo Fea in Birmania e regioni vicine. LXXX. Secondo saggio sui Ragni birmani. II. Retitelariae et Orbitelariae. » Annali del Museo Civico di Storia Naturale di Genova, sér. 2, vol. 19 (39), p. 271-378 (texte intégral).</t>
         </is>
